--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 4 (46, 56, 4, 38, 5)/Ableson 3 (18, 29, 14, 48, 38)/NCDE_32nodes_Uniform0.05Virtual_Nelson(46, 56, 4, 38, 5)_Ableson(18, 29, 14, 48, 38)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5177754443932278</v>
+        <v>0.5170908230520265</v>
       </c>
       <c r="E2">
-        <v>0.5177754443932278</v>
+        <v>0.5170908230520265</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.000131925503582476</v>
+        <v>0.0001316036549504693</v>
       </c>
       <c r="E3">
-        <v>0.000131925503582476</v>
+        <v>0.0001316036549504693</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>8.830043580850099E-08</v>
+        <v>8.94542481432083E-08</v>
       </c>
       <c r="E4">
-        <v>8.830043580850099E-08</v>
+        <v>8.94542481432083E-08</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01193841512878685</v>
+        <v>0.0119347304612219</v>
       </c>
       <c r="E5">
-        <v>0.01193841512878685</v>
+        <v>0.0119347304612219</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9672758171231919</v>
+        <v>0.9672422412347126</v>
       </c>
       <c r="E6">
-        <v>0.9672758171231919</v>
+        <v>0.9672422412347126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9822633603683708</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.01773663963162919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9967465764152624</v>
+        <v>0.9397938006196865</v>
       </c>
       <c r="E8">
-        <v>0.003253423584737569</v>
+        <v>0.06020619938031346</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9808931731765581</v>
+        <v>0.9999998271621057</v>
       </c>
       <c r="E9">
-        <v>0.01910682682344189</v>
+        <v>1.728378943299802E-07</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9938322503364135</v>
+        <v>0.1711863189062275</v>
       </c>
       <c r="E10">
-        <v>0.006167749663586464</v>
+        <v>0.8288136810937725</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.982731812065896</v>
+        <v>0.9216864756624517</v>
       </c>
       <c r="E11">
-        <v>0.01726818793410401</v>
+        <v>0.07831352433754835</v>
       </c>
       <c r="F11">
-        <v>0.4225180745124817</v>
+        <v>0.6067328453063965</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.971253981622936</v>
+        <v>0.9713708463916125</v>
       </c>
       <c r="E12">
-        <v>0.971253981622936</v>
+        <v>0.9713708463916125</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.001599454869775737</v>
+        <v>0.001597448136458384</v>
       </c>
       <c r="E13">
-        <v>0.001599454869775737</v>
+        <v>0.001597448136458384</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>5.136225303944154E-07</v>
+        <v>5.22854067346144E-07</v>
       </c>
       <c r="E14">
-        <v>5.136225303944154E-07</v>
+        <v>5.22854067346144E-07</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0176609005011171</v>
+        <v>0.01766223164804219</v>
       </c>
       <c r="E15">
-        <v>0.0176609005011171</v>
+        <v>0.01766223164804219</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.4294076402601299</v>
+        <v>0.4302958837927634</v>
       </c>
       <c r="E16">
-        <v>0.4294076402601299</v>
+        <v>0.4302958837927634</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9993064822120937</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.0006935177879062726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999031678455881</v>
+        <v>0.762370498476248</v>
       </c>
       <c r="E18">
-        <v>9.683215441191884E-05</v>
+        <v>0.237629501523752</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9996016764800773</v>
+        <v>0.9999999521487973</v>
       </c>
       <c r="E19">
-        <v>0.0003983235199227497</v>
+        <v>4.785120266692644E-08</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9997102914716249</v>
+        <v>0.03402114179950404</v>
       </c>
       <c r="E20">
-        <v>0.0002897085283750656</v>
+        <v>0.965978858200496</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9992191802562089</v>
+        <v>0.9851901291616872</v>
       </c>
       <c r="E21">
-        <v>0.0007808197437910724</v>
+        <v>0.01480987083831276</v>
       </c>
       <c r="F21">
-        <v>0.4132017195224762</v>
+        <v>0.7802404165267944</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
